--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -352,6 +352,26 @@
   </si>
   <si>
     <t>Le statut de publication indique si l’autorisation a été donnée ou pas de publier le certificat dans l’annuaire de publication des certificats.</t>
+  </si>
+  <si>
+    <t>Certificat.ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>Certificat.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
   </si>
 </sst>
 </file>
@@ -656,7 +676,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ15"/>
+  <dimension ref="A1:AJ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -665,8 +685,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.8515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.8515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="25.76953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.76953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -675,7 +695,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -696,7 +716,7 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="22.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="25.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -2208,6 +2228,206 @@
         <v>71</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,6 +364,16 @@
     <t>Lien vers la classe ExerciceProfessionnel</t>
   </si>
   <si>
+    <t>Certificat.CarteProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/CarteProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe CarteProfessionnel</t>
+  </si>
+  <si>
     <t>Certificat.EntiteGeographique</t>
   </si>
   <si>
@@ -372,6 +382,16 @@
   </si>
   <si>
     <t>Lien vers la classe EntiteGeographique</t>
+  </si>
+  <si>
+    <t>Certificat.EntiteJuridique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteJuridique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteJuridique</t>
   </si>
 </sst>
 </file>
@@ -676,7 +696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2428,6 +2448,206 @@
         <v>71</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-Certificat.xlsx
+++ b/ML/ig/StructureDefinition-Certificat.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
